--- a/LNG_Production_Capacity.xlsx
+++ b/LNG_Production_Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beemokcapitalorg-my.sharepoint.com/personal/rhaas_beemok_com/Documents/Desktop/nat_gas_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{BFF67706-A69A-4CDB-9786-536B0AE4F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C63E7B4B-1936-4E73-8867-D8519EEB5388}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{BFF67706-A69A-4CDB-9786-536B0AE4F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65734767-9637-4E6E-9B63-227326115225}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{61C0C2A2-544F-4C14-92E8-A13B94E0C8D3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="111">
   <si>
     <t>Online</t>
   </si>
@@ -281,9 +281,6 @@
     <t>Sabine Pass Expansion</t>
   </si>
   <si>
-    <t>06/31/2031</t>
-  </si>
-  <si>
     <t>Planned</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
     <t>North Field East NFE</t>
   </si>
   <si>
-    <t>11/15/2025 - 26</t>
-  </si>
-  <si>
     <t>Chiyoda Corp</t>
   </si>
   <si>
@@ -375,6 +369,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mexico </t>
+  </si>
+  <si>
+    <t>6/31/2031</t>
   </si>
 </sst>
 </file>
@@ -863,7 +860,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,7 +908,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="4">
         <v>77</v>
@@ -920,7 +917,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="4">
         <v>1984</v>
@@ -929,16 +926,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="K2" s="5">
         <v>45810</v>
@@ -946,7 +943,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="4">
         <v>0.5</v>
@@ -955,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E3" s="5">
         <v>26099</v>
@@ -964,13 +961,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="5">
@@ -1144,7 +1141,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="4">
         <v>1.4</v>
@@ -1153,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E9" s="5">
         <v>45519</v>
@@ -1162,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="5">
@@ -1346,7 +1343,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B15" s="4">
         <v>14</v>
@@ -1355,7 +1352,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E15" s="5">
         <v>45823</v>
@@ -1364,13 +1361,13 @@
         <v>60</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="5">
@@ -1379,7 +1376,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16" s="4">
         <v>3.5</v>
@@ -1397,10 +1394,10 @@
         <v>60</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>11</v>
@@ -1526,7 +1523,7 @@
         <v>46553</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>68</v>
@@ -1559,7 +1556,7 @@
         <v>46553</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>59</v>
@@ -1577,7 +1574,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B22" s="4">
         <v>16</v>
@@ -1586,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" s="5">
         <v>46553</v>
@@ -1595,13 +1592,13 @@
         <v>60</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="5">
@@ -1610,7 +1607,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B23" s="4">
         <v>2.1</v>
@@ -1619,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E23" s="5">
         <v>46553</v>
@@ -1628,10 +1625,10 @@
         <v>60</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>23</v>
@@ -1643,7 +1640,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B24" s="4">
         <v>4</v>
@@ -1661,10 +1658,10 @@
         <v>60</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>56</v>
@@ -1759,7 +1756,7 @@
         <v>46919</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>64</v>
@@ -1792,7 +1789,7 @@
         <v>46919</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>49</v>
@@ -1825,7 +1822,7 @@
         <v>46919</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>22</v>
@@ -1858,7 +1855,7 @@
         <v>46919</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>59</v>
@@ -1926,7 +1923,7 @@
         <v>47284</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>78</v>
@@ -1944,7 +1941,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B33" s="4">
         <v>15</v>
@@ -1953,19 +1950,19 @@
         <v>2</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E33" s="5">
         <v>47284</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I33" s="16" t="s">
         <v>15</v>
@@ -1977,7 +1974,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" s="4">
         <v>16</v>
@@ -1986,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="5">
         <v>47483</v>
@@ -1995,13 +1992,13 @@
         <v>60</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="5">
@@ -2025,7 +2022,7 @@
         <v>48014</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>32</v>
@@ -2055,10 +2052,10 @@
         <v>13</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>14</v>
@@ -2076,7 +2073,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="4">
         <v>32</v>
@@ -2085,22 +2082,22 @@
         <v>4</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="E37" s="5">
+        <v>45976</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>60</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="5">

--- a/LNG_Production_Capacity.xlsx
+++ b/LNG_Production_Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beemokcapitalorg-my.sharepoint.com/personal/rhaas_beemok_com/Documents/Desktop/nat_gas_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{BFF67706-A69A-4CDB-9786-536B0AE4F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65734767-9637-4E6E-9B63-227326115225}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{BFF67706-A69A-4CDB-9786-536B0AE4F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FB4860F-875F-45CC-8127-D122F3030D65}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{61C0C2A2-544F-4C14-92E8-A13B94E0C8D3}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$37</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="9.9999999999994451E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -860,7 +860,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/LNG_Production_Capacity.xlsx
+++ b/LNG_Production_Capacity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beemokcapitalorg-my.sharepoint.com/personal/rhaas_beemok_com/Documents/Desktop/nat_gas_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{BFF67706-A69A-4CDB-9786-536B0AE4F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FB4860F-875F-45CC-8127-D122F3030D65}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{BFF67706-A69A-4CDB-9786-536B0AE4F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA30B64B-3AB5-4921-B928-C6E9BCBE7801}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{61C0C2A2-544F-4C14-92E8-A13B94E0C8D3}"/>
+    <workbookView xWindow="40884" yWindow="2160" windowWidth="17280" windowHeight="9960" xr2:uid="{61C0C2A2-544F-4C14-92E8-A13B94E0C8D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="110">
   <si>
     <t>Online</t>
   </si>
@@ -369,9 +369,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mexico </t>
-  </si>
-  <si>
-    <t>6/31/2031</t>
   </si>
 </sst>
 </file>
@@ -859,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC3E23E-5034-4D70-9B23-5CEBFD3E6501}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2051,8 +2048,8 @@
       <c r="D36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>110</v>
+      <c r="E36" s="5">
+        <v>48029</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>80</v>

--- a/LNG_Production_Capacity.xlsx
+++ b/LNG_Production_Capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beemokcapitalorg-my.sharepoint.com/personal/rhaas_beemok_com/Documents/Desktop/nat_gas_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{BFF67706-A69A-4CDB-9786-536B0AE4F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA30B64B-3AB5-4921-B928-C6E9BCBE7801}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="8_{BFF67706-A69A-4CDB-9786-536B0AE4F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09524515-0424-4FC4-A67E-B5DC7582719E}"/>
   <bookViews>
-    <workbookView xWindow="40884" yWindow="2160" windowWidth="17280" windowHeight="9960" xr2:uid="{61C0C2A2-544F-4C14-92E8-A13B94E0C8D3}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{61C0C2A2-544F-4C14-92E8-A13B94E0C8D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="120">
   <si>
     <t>Online</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Worley</t>
   </si>
   <si>
-    <t>Final FERC is imminent. Trains in fabrication</t>
-  </si>
-  <si>
     <t>Gulf LNG</t>
   </si>
   <si>
@@ -369,6 +366,39 @@
   </si>
   <si>
     <t xml:space="preserve">Mexico </t>
+  </si>
+  <si>
+    <t>Updated FERC application submitted June 2025.</t>
+  </si>
+  <si>
+    <t>Final FERC is imminent. Trains in fabrication.</t>
+  </si>
+  <si>
+    <t>Phase II expansion awaiting approval - increase storage capacity by 2.5x and add 2.5 MTPA capacity.</t>
+  </si>
+  <si>
+    <t>Optimization project under construction - increases capacity by 0.4 MTPA.</t>
+  </si>
+  <si>
+    <t>Submitted FERC application March 2025.</t>
+  </si>
+  <si>
+    <t>Option for a Phase 2 expansion to bring capacity to 28 MTPA.</t>
+  </si>
+  <si>
+    <t>Altamira LNG Expansion</t>
+  </si>
+  <si>
+    <t>Expansion potential up to 48 MTPA and 10 trains.</t>
+  </si>
+  <si>
+    <t>Expansion potential up to 26 MTPA and 4 trains</t>
+  </si>
+  <si>
+    <t>Targets FID in Q4 2025.</t>
+  </si>
+  <si>
+    <t>Phase I (16.5 MTPA &amp; 3 trains) FID achieved April 2025.</t>
   </si>
 </sst>
 </file>
@@ -470,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -495,16 +525,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -518,6 +542,33 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -854,17 +905,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC3E23E-5034-4D70-9B23-5CEBFD3E6501}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.5546875" style="24" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -896,16 +947,16 @@
       <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="4">
         <v>77</v>
@@ -914,7 +965,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" s="4">
         <v>1984</v>
@@ -923,24 +974,24 @@
         <v>0</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="K2" s="5">
-        <v>45810</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="4">
         <v>0.5</v>
@@ -949,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="5">
         <v>26099</v>
@@ -958,17 +1009,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>111</v>
+      </c>
       <c r="K3" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -999,9 +1052,9 @@
       <c r="I4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1032,9 +1085,9 @@
       <c r="I5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1065,9 +1118,9 @@
       <c r="I6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1075,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="4">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -1098,9 +1151,9 @@
       <c r="I7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1131,14 +1184,16 @@
       <c r="I8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="K8" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="4">
         <v>1.4</v>
@@ -1147,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="5">
         <v>45519</v>
@@ -1155,18 +1210,18 @@
       <c r="F9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="17"/>
+      <c r="G9" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="20"/>
       <c r="K9" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1174,10 +1229,10 @@
         <v>28</v>
       </c>
       <c r="B10" s="4">
-        <v>15.4</v>
+        <v>16.5</v>
       </c>
       <c r="C10" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>13</v>
@@ -1197,9 +1252,9 @@
       <c r="I10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1210,7 +1265,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="4">
-        <v>22.5</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>31</v>
@@ -1230,11 +1285,11 @@
       <c r="I11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="18" t="s">
         <v>34</v>
       </c>
       <c r="K11" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1242,7 +1297,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="4">
-        <v>10</v>
+        <v>11.4</v>
       </c>
       <c r="C12" s="4">
         <v>18</v>
@@ -1265,9 +1320,9 @@
       <c r="I12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1275,10 +1330,10 @@
         <v>40</v>
       </c>
       <c r="B13" s="4">
-        <v>14.2</v>
+        <v>11.5</v>
       </c>
       <c r="C13" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>13</v>
@@ -1287,7 +1342,7 @@
         <v>45823</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>29</v>
@@ -1298,11 +1353,11 @@
       <c r="I13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="18" t="s">
         <v>41</v>
       </c>
       <c r="K13" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1310,10 +1365,10 @@
         <v>42</v>
       </c>
       <c r="B14" s="4">
-        <v>14</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="C14" s="4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>31</v>
@@ -1322,7 +1377,7 @@
         <v>45823</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>32</v>
@@ -1333,14 +1388,16 @@
       <c r="I14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="K14" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="4">
         <v>14</v>
@@ -1349,34 +1406,36 @@
         <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="5">
         <v>45823</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>114</v>
+      </c>
       <c r="K15" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="4">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -1388,20 +1447,20 @@
         <v>45823</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="17"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1421,20 +1480,20 @@
         <v>46096</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>46</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1454,20 +1513,22 @@
         <v>46553</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>49</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="J18" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="K18" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1487,7 +1548,7 @@
         <v>46553</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>46</v>
@@ -1498,14 +1559,16 @@
       <c r="I19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="9"/>
+      <c r="J19" s="18" t="s">
+        <v>117</v>
+      </c>
       <c r="K19" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="4">
         <v>0.5</v>
@@ -1514,64 +1577,66 @@
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="5">
         <v>46553</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>37</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="J20" s="18"/>
       <c r="K20" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="4">
-        <v>6</v>
+        <v>16.5</v>
       </c>
       <c r="C21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="5">
         <v>46553</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>37</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>118</v>
+      </c>
       <c r="K21" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="4">
         <v>16</v>
@@ -1580,31 +1645,31 @@
         <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="5">
         <v>46553</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="J22" s="18"/>
       <c r="K22" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="4">
         <v>2.1</v>
@@ -1613,34 +1678,34 @@
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="5">
         <v>46553</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="8"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="4">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
@@ -1652,20 +1717,20 @@
         <v>46553</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="20"/>
       <c r="K24" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1673,7 +1738,7 @@
         <v>51</v>
       </c>
       <c r="B25" s="4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C25" s="4">
         <v>36</v>
@@ -1685,7 +1750,7 @@
         <v>46919</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>22</v>
@@ -1696,19 +1761,19 @@
       <c r="I25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="13" t="s">
-        <v>53</v>
+      <c r="J25" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="K25" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="4">
-        <v>10.7</v>
+        <v>10.85</v>
       </c>
       <c r="C26" s="4">
         <v>2</v>
@@ -1720,25 +1785,25 @@
         <v>46919</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="9"/>
+      <c r="J26" s="18"/>
       <c r="K26" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="4">
         <v>20</v>
@@ -1747,31 +1812,31 @@
         <v>3</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="5">
         <v>46919</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>37</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="J27" s="18"/>
       <c r="K27" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="4">
         <v>4</v>
@@ -1780,13 +1845,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E28" s="5">
         <v>46919</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>49</v>
@@ -1797,14 +1862,14 @@
       <c r="I28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="9"/>
+      <c r="J28" s="18"/>
       <c r="K28" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="4">
         <v>30</v>
@@ -1819,7 +1884,7 @@
         <v>46919</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>22</v>
@@ -1828,16 +1893,16 @@
         <v>37</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="J29" s="18"/>
       <c r="K29" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="4">
         <v>8.8000000000000007</v>
@@ -1846,33 +1911,33 @@
         <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" s="5">
         <v>46919</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>37</v>
       </c>
       <c r="I30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="K30" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="4">
         <v>27.6</v>
@@ -1881,16 +1946,16 @@
         <v>5</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" s="5">
         <v>47284</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>37</v>
@@ -1898,14 +1963,16 @@
       <c r="I31" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="9"/>
+      <c r="J31" s="18" t="s">
+        <v>119</v>
+      </c>
       <c r="K31" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
@@ -1914,31 +1981,31 @@
         <v>3</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="5">
         <v>47284</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>37</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="J32" s="18"/>
       <c r="K32" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="4">
         <v>15</v>
@@ -1947,31 +2014,31 @@
         <v>2</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E33" s="5">
         <v>47284</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="H33" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="17"/>
+      <c r="J33" s="20"/>
       <c r="K33" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" s="4">
         <v>16</v>
@@ -1980,31 +2047,31 @@
         <v>2</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" s="5">
         <v>47483</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J34" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="J34" s="18"/>
       <c r="K34" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="4">
         <v>4.2</v>
@@ -2013,13 +2080,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E35" s="5">
         <v>48014</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>32</v>
@@ -2028,22 +2095,22 @@
         <v>37</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J35" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="J35" s="18"/>
       <c r="K35" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C36" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
@@ -2052,25 +2119,27 @@
         <v>48029</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>37</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J36" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>109</v>
+      </c>
       <c r="K36" s="5">
-        <v>45810</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="4">
         <v>32</v>
@@ -2079,26 +2148,58 @@
         <v>4</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37" s="5">
         <v>45976</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J37" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="J37" s="18"/>
       <c r="K37" s="5">
-        <v>45810</v>
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="5">
+        <v>46553</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K38" s="5">
+        <v>45846</v>
       </c>
     </row>
   </sheetData>
@@ -2139,6 +2240,7 @@
     <hyperlink ref="G16" r:id="rId34" xr:uid="{1CE706C5-D837-4CBF-B66C-F92EDF6AF5D7}"/>
     <hyperlink ref="G24" r:id="rId35" xr:uid="{AA6F633A-ADC5-4FE0-913D-BDE5A09BAEC1}"/>
     <hyperlink ref="G33" r:id="rId36" xr:uid="{1DA86659-324C-4BC5-B279-2E16B499687D}"/>
+    <hyperlink ref="G38" r:id="rId37" xr:uid="{B4E73385-0695-4B68-9185-0B4263A6E696}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LNG_Production_Capacity.xlsx
+++ b/LNG_Production_Capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beemokcapitalorg-my.sharepoint.com/personal/rhaas_beemok_com/Documents/Desktop/nat_gas_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="8_{BFF67706-A69A-4CDB-9786-536B0AE4F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09524515-0424-4FC4-A67E-B5DC7582719E}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="8_{BFF67706-A69A-4CDB-9786-536B0AE4F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCB53470-3DD1-409F-933E-C9631C6F94EB}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{61C0C2A2-544F-4C14-92E8-A13B94E0C8D3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{61C0C2A2-544F-4C14-92E8-A13B94E0C8D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="122">
   <si>
     <t>Online</t>
   </si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t>Phase I (16.5 MTPA &amp; 3 trains) FID achieved April 2025.</t>
+  </si>
+  <si>
+    <t>West Delta LNG</t>
+  </si>
+  <si>
+    <t>LNG21</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -569,6 +575,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -905,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC3E23E-5034-4D70-9B23-5CEBFD3E6501}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2200,6 +2209,38 @@
       </c>
       <c r="K38" s="5">
         <v>45846</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="4">
+        <v>5</v>
+      </c>
+      <c r="C39" s="4">
+        <v>6</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="5">
+        <v>48029</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" s="5">
+        <v>45868</v>
       </c>
     </row>
   </sheetData>
@@ -2241,6 +2282,7 @@
     <hyperlink ref="G24" r:id="rId35" xr:uid="{AA6F633A-ADC5-4FE0-913D-BDE5A09BAEC1}"/>
     <hyperlink ref="G33" r:id="rId36" xr:uid="{1DA86659-324C-4BC5-B279-2E16B499687D}"/>
     <hyperlink ref="G38" r:id="rId37" xr:uid="{B4E73385-0695-4B68-9185-0B4263A6E696}"/>
+    <hyperlink ref="G39" r:id="rId38" xr:uid="{339EF467-C17E-49DA-933C-61774DBEE3F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
